--- a/FundamentalsJS.xlsx
+++ b/FundamentalsJS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\OneDrive\Desktop\Coding\SoftUniFundamentalsRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD93EACD-659A-4705-9D36-0A7CE88613C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0BFF43-DB7A-45EC-A204-3085800E0045}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13869" xr2:uid="{2CD0B420-44AB-4B4D-8BDD-33FD409517FA}"/>
+    <workbookView xWindow="-30840" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{2CD0B420-44AB-4B4D-8BDD-33FD409517FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Lecture / Lab</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t xml:space="preserve">in progress . . . </t>
+  </si>
+  <si>
+    <t>////</t>
   </si>
 </sst>
 </file>
@@ -267,14 +270,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08C1070-D8A3-4345-AFE6-25DF65D9AC99}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K17" sqref="K17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -604,7 +607,7 @@
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -613,7 +616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -623,11 +626,11 @@
       <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -637,11 +640,11 @@
       <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -653,8 +656,8 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -665,8 +668,8 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="13"/>
       <c r="B6" s="2">
         <v>15</v>
       </c>
@@ -675,7 +678,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -687,7 +690,7 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -699,8 +702,8 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
@@ -711,8 +714,8 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="12"/>
       <c r="B10" s="2">
         <v>21</v>
       </c>
@@ -721,8 +724,8 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2">
@@ -733,8 +736,8 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="12"/>
       <c r="B12" s="2">
         <v>25</v>
       </c>
@@ -742,8 +745,11 @@
         <v>24</v>
       </c>
       <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -755,8 +761,8 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2">
@@ -769,8 +775,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="12"/>
       <c r="B15" s="2">
         <v>28</v>
       </c>
@@ -779,7 +785,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -792,7 +798,7 @@
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2">
@@ -804,7 +810,7 @@
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2">
         <v>31</v>
       </c>
@@ -828,7 +834,7 @@
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="2">
@@ -840,7 +846,7 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="2">
         <v>34</v>
       </c>

--- a/FundamentalsJS.xlsx
+++ b/FundamentalsJS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\OneDrive\Desktop\Coding\SoftUniFundamentalsRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0BFF43-DB7A-45EC-A204-3085800E0045}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE8A19F-5B22-4567-A46B-EE78A860AEBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30840" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{2CD0B420-44AB-4B4D-8BDD-33FD409517FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Lecture / Lab</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t xml:space="preserve">in progress . . . </t>
-  </si>
-  <si>
-    <t>////</t>
   </si>
 </sst>
 </file>
@@ -593,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08C1070-D8A3-4345-AFE6-25DF65D9AC99}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:K18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -607,7 +604,7 @@
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -616,7 +613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -630,7 +627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -644,7 +641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -656,7 +653,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -668,7 +665,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="13"/>
       <c r="B6" s="2">
         <v>15</v>
@@ -678,7 +675,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -690,7 +687,7 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -702,7 +699,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -714,7 +711,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="12"/>
       <c r="B10" s="2">
         <v>21</v>
@@ -724,7 +721,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -736,7 +733,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="12"/>
       <c r="B12" s="2">
         <v>25</v>
@@ -745,11 +742,8 @@
         <v>24</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -761,7 +755,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>10</v>
       </c>
@@ -775,7 +769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="12"/>
       <c r="B15" s="2">
         <v>28</v>
@@ -785,7 +779,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>

--- a/FundamentalsJS.xlsx
+++ b/FundamentalsJS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\OneDrive\Desktop\Coding\SoftUniFundamentalsRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE8A19F-5B22-4567-A46B-EE78A860AEBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652A3B3F-D069-45BF-9DDE-839A2D182452}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30840" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{2CD0B420-44AB-4B4D-8BDD-33FD409517FA}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13869" xr2:uid="{2CD0B420-44AB-4B4D-8BDD-33FD409517FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Lecture / Lab</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in progress . . . </t>
   </si>
 </sst>
 </file>
@@ -220,7 +217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,14 +264,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,7 +590,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -623,9 +620,7 @@
       <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -637,9 +632,7 @@
       <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
@@ -654,7 +647,7 @@
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -666,7 +659,7 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="13"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2">
         <v>15</v>
       </c>
@@ -700,45 +693,45 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>20</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="13">
         <v>5</v>
       </c>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="12"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2">
         <v>21</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2">
         <v>24</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2">
         <v>25</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="8"/>
@@ -756,7 +749,7 @@
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2">
@@ -770,7 +763,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="2">
         <v>28</v>
       </c>
@@ -786,13 +779,13 @@
       <c r="B16" s="2">
         <v>29</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>21</v>
+      <c r="C16" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2">
@@ -804,7 +797,7 @@
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="12"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="2">
         <v>31</v>
       </c>
@@ -828,23 +821,23 @@
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="2">
         <v>33</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="13">
         <v>1</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="12"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="2">
         <v>34</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="8"/>
